--- a/Data/RemapDrafts/BarbaraRemapDraft.xlsx
+++ b/Data/RemapDrafts/BarbaraRemapDraft.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss-Fork\Data\RemapDrafts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss\Data\RemapDrafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{342E237A-0603-4906-B45C-5ED6941ABDFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCD04F6-742E-4EDE-9476-E59E15D5CA0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{5F0387E8-ECD3-4B89-A1B8-741FD14AA159}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{5F0387E8-ECD3-4B89-A1B8-741FD14AA159}"/>
   </bookViews>
   <sheets>
-    <sheet name="Barbara to BarbarSummertime" sheetId="1" r:id="rId1"/>
-    <sheet name="BarbaraSummertime to Barbara" sheetId="2" r:id="rId2"/>
+    <sheet name="V4.0 - Barbara to Summertime" sheetId="1" r:id="rId1"/>
+    <sheet name="V4.0 - Summertime to Barbara" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Barbara to BarbarSummertime'!$A$1:$D$104</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BarbaraSummertime to Barbara'!$A$1:$D$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V4.0 - Barbara to Summertime'!$A$1:$D$104</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'V4.0 - Summertime to Barbara'!$A$1:$D$88</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -244,17 +244,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -608,19 +598,19 @@
   <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="114.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -634,7 +624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -645,7 +635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -653,7 +643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -661,7 +651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -672,7 +662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -680,7 +670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -688,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -702,7 +692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -716,7 +706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -724,7 +714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -732,7 +722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -740,7 +730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -748,7 +738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -756,7 +746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -764,7 +754,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -772,7 +762,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -780,7 +770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -788,7 +778,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -796,7 +786,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -804,7 +794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -812,7 +802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -823,7 +813,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -834,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -848,7 +838,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -862,7 +852,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -873,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -884,7 +874,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -898,7 +888,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -912,7 +902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -923,7 +913,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -937,7 +927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -951,7 +941,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -965,7 +955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -979,7 +969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -990,7 +980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1004,7 +994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1018,7 +1008,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1029,7 +1019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1040,7 +1030,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1054,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1068,7 +1058,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1079,7 +1069,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1090,7 +1080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1098,7 +1088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1106,7 +1096,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1114,7 +1104,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1125,7 +1115,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1133,7 +1123,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1141,7 +1131,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1149,7 +1139,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1160,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1174,7 +1164,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1185,7 +1175,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1199,7 +1189,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1210,7 +1200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1218,7 +1208,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1226,7 +1216,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1234,7 +1224,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1242,7 +1232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1250,7 +1240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1258,7 +1248,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1266,7 +1256,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1274,7 +1264,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1282,7 +1272,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1290,7 +1280,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1298,7 +1288,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1306,7 +1296,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1314,7 +1304,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1322,7 +1312,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1330,7 +1320,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1338,7 +1328,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1346,7 +1336,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1354,7 +1344,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1362,7 +1352,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1373,7 +1363,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1381,7 +1371,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1389,7 +1379,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1397,7 +1387,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1405,7 +1395,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1413,7 +1403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1421,7 +1411,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1429,7 +1419,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1437,7 +1427,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1445,7 +1435,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1453,7 +1443,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1461,7 +1451,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1469,7 +1459,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1477,7 +1467,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1485,7 +1475,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1493,7 +1483,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1501,7 +1491,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1509,7 +1499,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1517,7 +1507,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1525,7 +1515,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1533,7 +1523,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1541,7 +1531,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1549,7 +1539,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1560,7 +1550,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1568,7 +1558,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1576,7 +1566,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1584,7 +1574,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1592,7 +1582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -1600,7 +1590,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1611,7 +1601,7 @@
   </sheetData>
   <autoFilter ref="A1:D104" xr:uid="{7904AEFC-678B-4B51-930B-224E6469B1A4}"/>
   <conditionalFormatting sqref="B2:B104">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1625,15 +1615,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.36328125" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="83.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1647,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1655,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1663,7 +1653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1671,7 +1661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1679,7 +1669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1687,7 +1677,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1695,7 +1685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1703,7 +1693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1711,7 +1701,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1719,7 +1709,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1727,7 +1717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1735,7 +1725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1743,7 +1733,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1751,7 +1741,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1759,7 +1749,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1767,7 +1757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1775,7 +1765,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1783,7 +1773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1791,7 +1781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1799,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1810,7 +1800,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1821,7 +1811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1832,7 +1822,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1843,7 +1833,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1854,7 +1844,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1865,7 +1855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1876,7 +1866,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1887,7 +1877,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1898,7 +1888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1909,7 +1899,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1920,7 +1910,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1931,7 +1921,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1939,7 +1929,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1950,7 +1940,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1958,7 +1948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1969,7 +1959,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1977,7 +1967,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1985,7 +1975,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1993,7 +1983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2001,7 +1991,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2009,7 +1999,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2017,7 +2007,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2025,7 +2015,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2033,7 +2023,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2041,7 +2031,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2049,7 +2039,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2057,7 +2047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2065,7 +2055,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2073,7 +2063,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2081,7 +2071,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2089,7 +2079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2097,7 +2087,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2105,7 +2095,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2113,7 +2103,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2121,7 +2111,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2129,7 +2119,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2137,7 +2127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2145,7 +2135,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2153,7 +2143,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2161,7 +2151,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2172,7 +2162,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2180,7 +2170,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2188,7 +2178,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -2196,7 +2186,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2204,7 +2194,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -2212,7 +2202,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -2220,7 +2210,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -2228,7 +2218,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -2236,7 +2226,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -2244,7 +2234,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -2252,7 +2242,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -2260,7 +2250,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -2268,7 +2258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -2276,7 +2266,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -2284,7 +2274,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -2292,7 +2282,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2300,7 +2290,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -2308,7 +2298,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -2316,7 +2306,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -2324,7 +2314,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -2332,7 +2322,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -2340,7 +2330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -2348,7 +2338,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -2356,7 +2346,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -2367,7 +2357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -2375,7 +2365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -2383,7 +2373,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
